--- a/resources/cleaned_eu_regex.xlsx
+++ b/resources/cleaned_eu_regex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00CurrentProject\SwissAIInit\data-tooling\ressources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00CurrentProject\SwissAIInit\data-tooling\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8776A20-709A-4D10-BAAA-DFEC55C78B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AE323B-26C2-4634-A5A3-B5DE74DAD479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-780" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -876,7 +876,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
